--- a/models/model_selection.xlsx
+++ b/models/model_selection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alersal Workflow Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alersal LinkedIn\Platform\Marketing Post D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8133A4-AB24-40F2-AF69-DB1479859E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5612745-DC3D-4FDC-9640-D2574E016A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7143F93-8AE2-495C-8A1D-98D67DF787B7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>Short</t>
   </si>
@@ -135,43 +135,56 @@
     <t>355,17</t>
   </si>
   <si>
-    <t>362,41</t>
-  </si>
-  <si>
     <t>273,23</t>
   </si>
   <si>
-    <t>Policy Short/BB</t>
-  </si>
-  <si>
     <t>Model S</t>
   </si>
   <si>
-    <t>331,23</t>
-  </si>
-  <si>
-    <t>237,23</t>
-  </si>
-  <si>
-    <t>Model D</t>
-  </si>
-  <si>
     <t>408,23</t>
   </si>
   <si>
     <t>Alpha</t>
   </si>
   <si>
-    <t>345,41</t>
-  </si>
-  <si>
-    <t>292,23</t>
+    <t>676,31</t>
+  </si>
+  <si>
+    <t>Equilibrium Frame</t>
+  </si>
+  <si>
+    <t>Short Exit</t>
+  </si>
+  <si>
+    <t>Short Entry</t>
+  </si>
+  <si>
+    <t>Long Entry</t>
+  </si>
+  <si>
+    <t>Long Exit</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>BB Period</t>
+  </si>
+  <si>
+    <t>Poly Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -217,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -243,10 +256,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE7D434-1671-4B45-B9E9-EBD9C44D711F}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,9 +623,17 @@
     <col min="3" max="3" width="10" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="14"/>
+    <col min="7" max="8" width="17.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="16" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="16"/>
+    <col min="12" max="12" width="9.88671875" style="16" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="11"/>
+    <col min="14" max="14" width="11.21875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -607,19 +644,40 @@
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -635,12 +693,11 @@
       <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -656,12 +713,11 @@
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -669,45 +725,51 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5">
         <v>36</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="F4" s="14">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G4" s="10">
+        <v>1530</v>
+      </c>
+      <c r="H4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="5">
         <v>45</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="14">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G5" s="10">
+        <v>1500</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -723,14 +785,14 @@
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="14">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -743,22 +805,40 @@
       <c r="D7" s="5">
         <v>31</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="14">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1326</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.1459</v>
+      </c>
+      <c r="J7" s="16">
+        <v>3.4439999999999998E-2</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.1459</v>
+      </c>
+      <c r="M7" s="11">
+        <v>45108</v>
+      </c>
+      <c r="N7" s="11">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>33</v>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>30</v>
@@ -769,18 +849,21 @@
       <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="14">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" s="10">
+        <v>819</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -789,17 +872,35 @@
       <c r="D9" s="5">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="G9" s="10">
+        <v>785</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="J9" s="16">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.1459</v>
+      </c>
+      <c r="M9" s="11">
+        <v>45108</v>
+      </c>
+      <c r="N9" s="11">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -812,13 +913,18 @@
       <c r="D10" s="5">
         <v>29</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="9"/>
+      <c r="F10" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1204</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/model_selection.xlsx
+++ b/models/model_selection.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alersal LinkedIn\Platform\Marketing Post D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alersal Workflow Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5612745-DC3D-4FDC-9640-D2574E016A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C164B51-149A-4EB0-878D-C83512BD1A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7143F93-8AE2-495C-8A1D-98D67DF787B7}"/>
   </bookViews>
@@ -182,8 +182,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -266,16 +266,16 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,7 +613,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,8 +629,8 @@
     <col min="10" max="10" width="10.33203125" style="16" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" style="16"/>
     <col min="12" max="12" width="9.88671875" style="16" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="11"/>
-    <col min="14" max="14" width="11.21875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -693,8 +693,26 @@
       <c r="E2" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="F2" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1155</v>
+      </c>
       <c r="H2" s="10">
         <v>3</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0.309</v>
+      </c>
+      <c r="J2" s="16">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="M2" s="11">
+        <v>42370</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -713,8 +731,26 @@
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1353</v>
+      </c>
       <c r="H3" s="10">
         <v>3</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.309</v>
+      </c>
+      <c r="J3" s="16">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="M3" s="11">
+        <v>42370</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -742,6 +778,18 @@
       <c r="H4" s="10">
         <v>3</v>
       </c>
+      <c r="I4" s="16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.1459</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.1459</v>
+      </c>
+      <c r="M4" s="11">
+        <v>42370</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -760,13 +808,25 @@
         <v>36</v>
       </c>
       <c r="F5" s="14">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="10">
-        <v>1500</v>
+        <v>1690</v>
       </c>
       <c r="H5" s="10">
         <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.1459</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.1459</v>
+      </c>
+      <c r="M5" s="11">
+        <v>42370</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -783,13 +843,25 @@
         <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6" s="14">
-        <v>0.72</v>
+        <v>0.74</v>
+      </c>
+      <c r="G6" s="10">
+        <v>865</v>
       </c>
       <c r="H6" s="10">
         <v>3</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.1459</v>
+      </c>
+      <c r="M6" s="11">
+        <v>42370</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -829,9 +901,6 @@
       <c r="M7" s="11">
         <v>45108</v>
       </c>
-      <c r="N7" s="11">
-        <v>46063</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -858,6 +927,18 @@
       <c r="H8" s="10">
         <v>3</v>
       </c>
+      <c r="I8" s="16">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="M8" s="11">
+        <v>45300</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -896,9 +977,6 @@
       <c r="M9" s="11">
         <v>45108</v>
       </c>
-      <c r="N9" s="11">
-        <v>46063</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -923,7 +1001,16 @@
         <v>1204</v>
       </c>
       <c r="H10" s="10">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.19095000000000001</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="M10" s="11">
+        <v>42370</v>
       </c>
     </row>
   </sheetData>

--- a/models/model_selection.xlsx
+++ b/models/model_selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Alersal Workflow Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C164B51-149A-4EB0-878D-C83512BD1A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82657835-A71A-4EC2-AB8D-489E8BF7F9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A7143F93-8AE2-495C-8A1D-98D67DF787B7}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,6 +714,9 @@
       <c r="M2" s="11">
         <v>42370</v>
       </c>
+      <c r="N2" s="11">
+        <v>46022</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -752,6 +755,9 @@
       <c r="M3" s="11">
         <v>42370</v>
       </c>
+      <c r="N3" s="11">
+        <v>46022</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -785,10 +791,13 @@
         <v>0.1459</v>
       </c>
       <c r="K4" s="16">
-        <v>0.1459</v>
+        <v>9.0200000000000002E-2</v>
       </c>
       <c r="M4" s="11">
         <v>42370</v>
+      </c>
+      <c r="N4" s="11">
+        <v>46022</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -828,6 +837,9 @@
       <c r="M5" s="11">
         <v>42370</v>
       </c>
+      <c r="N5" s="11">
+        <v>46022</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -863,6 +875,9 @@
       <c r="M6" s="11">
         <v>42370</v>
       </c>
+      <c r="N6" s="11">
+        <v>46022</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -901,6 +916,9 @@
       <c r="M7" s="11">
         <v>45108</v>
       </c>
+      <c r="N7" s="11">
+        <v>46022</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -939,6 +957,9 @@
       <c r="M8" s="11">
         <v>45300</v>
       </c>
+      <c r="N8" s="11">
+        <v>46022</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -977,6 +998,9 @@
       <c r="M9" s="11">
         <v>45108</v>
       </c>
+      <c r="N9" s="11">
+        <v>46022</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -1011,6 +1035,9 @@
       </c>
       <c r="M10" s="11">
         <v>42370</v>
+      </c>
+      <c r="N10" s="11">
+        <v>46022</v>
       </c>
     </row>
   </sheetData>
